--- a/xlsx/电影_intext.xlsx
+++ b/xlsx/电影_intext.xlsx
@@ -15,1857 +15,1836 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="610">
   <si>
     <t>电影</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%8E%E5%BE%B7%E6%B5%B7%E8%8A%B1%E5%9B%AD%E5%9C%BA%E6%99%AF</t>
+  </si>
+  <si>
+    <t>郎德海花园场景</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>表演艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>视觉艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%AC%E8%A7%89%E8%89%BA%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>听觉艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E5%8D%B7</t>
+  </si>
+  <si>
+    <t>胶卷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%95%E5%83%8F%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>录像带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%AA%92%E9%AB%94</t>
+  </si>
+  <si>
+    <t>数位媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%A7</t>
+  </si>
+  <si>
+    <t>帧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E7%8F%BE%E8%B1%A1</t>
+  </si>
+  <si>
+    <t>飞现象</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E6%9A%AB%E7%95%99</t>
+  </si>
+  <si>
+    <t>视觉暂留</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hugo_M%C3%BCnsterberg</t>
+  </si>
+  <si>
+    <t>en-Hugo Münsterberg</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E8%A3%BD%E4%BD%9C</t>
+  </si>
+  <si>
+    <t>电影制作</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>艺术电影</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/film_industry</t>
+  </si>
+  <si>
+    <t>en-film industry</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E6%94%9D%E5%BD%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>电影摄影机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%84%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>摄影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB</t>
+  </si>
+  <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E6%88%90%E5%83%8F</t>
+  </si>
+  <si>
+    <t>电脑成像</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%8A%A8%E7%94%BB</t>
+  </si>
+  <si>
+    <t>计算机动画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89%E6%95%88%E6%9E%9C</t>
+  </si>
+  <si>
+    <t>视觉效果</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E6%99%AE%E6%9E%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>路易斯·普林斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E5%BE%B7%E6%B5%B7%E8%8A%B1%E5%9B%AD%E5%9C%BA%E6%99%AF</t>
+  </si>
+  <si>
+    <t>朗德海花园场景</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ricciotto_Canudo</t>
+  </si>
+  <si>
+    <t>en-Ricciotto Canudo</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E5%A1%91</t>
+  </si>
+  <si>
+    <t>雕塑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B9%AA%E7%95%AB</t>
+  </si>
+  <si>
+    <t>绘画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%A9</t>
+  </si>
+  <si>
+    <t>诗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%9E%E8%B9%88</t>
+  </si>
+  <si>
+    <t>舞蹈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B2%E5%8A%87</t>
+  </si>
+  <si>
+    <t>戏剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>八大艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E6%94%BE%E6%98%A0%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>电影放映机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E8%81%B2%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>有声电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E5%BD%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>摄影机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E6%B2%83%E5%BE%B7%C2%B7%E8%BF%88%E5%B8%83%E9%87%8C%E5%A5%87</t>
+  </si>
+  <si>
+    <t>埃德沃德·迈布里奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E7%B1%B3%E5%9F%83%E5%B0%94%E5%85%84%E5%BC%9F</t>
+  </si>
+  <si>
+    <t>卢米埃尔兄弟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>游戏报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E8%A9%95%E8%AB%96</t>
+  </si>
+  <si>
+    <t>电影评论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>大公报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>电影史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BD%A6%E8%BF%9B%E7%AB%99</t>
+  </si>
+  <si>
+    <t>火车进站</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E7%B1%B3%E5%9F%83%E5%85%84%E5%BC%9F</t>
+  </si>
+  <si>
+    <t>卢米埃兄弟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%99%BD</t>
+  </si>
+  <si>
+    <t>黑白</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E5%BC%80%E5%B7%A5%E5%8E%82</t>
+  </si>
+  <si>
+    <t>离开工厂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E7%94%9F%E6%B4%BB</t>
+  </si>
+  <si>
+    <t>日常生活</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%A2%85%E9%87%8C%E7%88%B1</t>
+  </si>
+  <si>
+    <t>乔治·梅里爱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%93%E5%88%A5%E6%9E%97</t>
+  </si>
+  <si>
+    <t>卓别林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E7%93%A6%E5%80%AB%E8%92%82%E8%AB%BE</t>
+  </si>
+  <si>
+    <t>鲁道夫·瓦伦蒂诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%C2%B7%E4%BC%8D%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>艾德·伍德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%81%B2%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>无声电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E7%90%B4</t>
+  </si>
+  <si>
+    <t>钢琴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%BB%8C</t>
+  </si>
+  <si>
+    <t>音轨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%AD%8C%E6%89%8B</t>
+  </si>
+  <si>
+    <t>爵士歌手</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E5%8D%8E%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>浮华世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%8C%B9%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>史匹堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%BE%B7%E5%8B%92%E7%9A%84%E5%90%8D%E5%96%AE</t>
+  </si>
+  <si>
+    <t>辛德勒的名单</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%99%E9%87%8C%E7%9A%84%E9%BB%8E%E6%98%8E%E9%9D%99%E6%82%84%E6%82%84_(1972%E5%B9%B4%E7%94%B5%E5%BD%B1)</t>
+  </si>
+  <si>
+    <t>这里的黎明静悄悄 (1972年电影)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%97%9D%E8%A1%93%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>大艺术家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E9%81%94%E7%9A%84%E6%8A%89%E6%93%87</t>
+  </si>
+  <si>
+    <t>依达的抉择</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%B7%E8%B4%9D</t>
+  </si>
+  <si>
+    <t>拷贝</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/16_mm_film</t>
+  </si>
+  <si>
+    <t>en-16 mm film</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bolex</t>
+  </si>
+  <si>
+    <t>en-Bolex</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/film_school</t>
+  </si>
+  <si>
+    <t>en-film school</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E9%98%BF%E6%81%A9%E6%B5%B7%E5%A7%86</t>
+  </si>
+  <si>
+    <t>鲁道夫·阿恩海姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%8B%89%C2%B7%E5%B7%B4%E6%8B%89%E5%85%B9</t>
+  </si>
+  <si>
+    <t>贝拉·巴拉兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%A0%BC%E5%BC%97%E9%87%8C%E5%BE%B7%C2%B7%E7%A7%91%E6%8B%89%E8%80%83%E7%88%BE</t>
+  </si>
+  <si>
+    <t>齐格弗里德·科拉考尔</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Formalist_film_theory</t>
+  </si>
+  <si>
+    <t>en-Formalist film theory</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A1%93</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E5%B7%B4%E8%B5%9E</t>
+  </si>
+  <si>
+    <t>安德烈·巴赞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%C2%B7%E6%8B%89%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>雅各·拉冈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>精神分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%BF%AA%E5%8D%97%C2%B7%E5%BE%B7%C2%B7%E7%B4%A2%E7%B7%92%E7%88%BE</t>
+  </si>
+  <si>
+    <t>弗迪南·德·索绪尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>符号学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/psychoanalytical_film_theory</t>
+  </si>
+  <si>
+    <t>en-psychoanalytical film theory</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/structuralist_film_theory</t>
+  </si>
+  <si>
+    <t>en-structuralist film theory</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/feminist_film_theory</t>
+  </si>
+  <si>
+    <t>en-feminist film theory</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E7%BB%B4%E7%89%B9%E6%A0%B9%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>路德维希·维特根斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>分析哲学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Form_of_life_(philosophy)</t>
+  </si>
+  <si>
+    <t>en-Form of life (philosophy)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/James_Monaco</t>
+  </si>
+  <si>
+    <t>en-James Monaco</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E7%8E%9B%C2%B7%E4%BC%AF%E6%A0%BC%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>英格玛·伯格曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E5%A1%94%E5%B0%94%E7%A7%91%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>安德烈·塔尔科夫斯基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E5%B0%8E%E6%BC%94</t>
+  </si>
+  <si>
+    <t>电影导演</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/180-degree_rule</t>
+  </si>
+  <si>
+    <t>en-180-degree rule</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E5%85%B8%E5%A5%BD%E8%8E%B1%E5%9D%9E%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>经典好莱坞电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E7%B4%99</t>
+  </si>
+  <si>
+    <t>报纸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%AA%8C</t>
+  </si>
+  <si>
+    <t>杂志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%87%E7%A8%AE</t>
+  </si>
+  <si>
+    <t>片种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E4%BD%9C%E7%89%87</t>
+  </si>
+  <si>
+    <t>动作片</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%89%87</t>
+  </si>
+  <si>
+    <t>恐怖片</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%8A%87%E7%89%87</t>
+  </si>
+  <si>
+    <t>喜剧片</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E6%83%85%E7%89%87</t>
+  </si>
+  <si>
+    <t>剧情片</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%A8%E6%88%BF</t>
+  </si>
+  <si>
+    <t>票房</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Film_promotion</t>
+  </si>
+  <si>
+    <t>en-Film promotion</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%B4%8B%E7%89%87</t>
+  </si>
+  <si>
+    <t>拉洋片</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%C2%B7%E5%B8%83%E6%8B%89%E5%93%88%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>斯坦·布拉哈格</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mothlight</t>
+  </si>
+  <si>
+    <t>en-Mothlight</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pre-production</t>
+  </si>
+  <si>
+    <t>en-Pre-production</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9C%9F%E8%A3%BD%E4%BD%9C</t>
+  </si>
+  <si>
+    <t>后期制作</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Film_distribution</t>
+  </si>
+  <si>
+    <t>en-Film distribution</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%81%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>阅听人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/film_distributor</t>
+  </si>
+  <si>
+    <t>en-film distributor</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/film_release</t>
+  </si>
+  <si>
+    <t>en-film release</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E9%99%A2</t>
+  </si>
+  <si>
+    <t>电影院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E9%81%B8%E8%A6%96%E8%A8%8A</t>
+  </si>
+  <si>
+    <t>随选视讯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E8%81%AF%E8%B3%A3</t>
+  </si>
+  <si>
+    <t>广播联卖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E8%8A%82%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>电视节目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/VHS</t>
+  </si>
+  <si>
+    <t>VHS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E5%A4%9A%E5%8A%9F%E8%83%BD%E5%BD%B1%E9%9F%B3%E5%85%89%E7%A2%9F</t>
+  </si>
+  <si>
+    <t>数码多功能影音光碟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%85%89%E5%85%89%E7%A2%9F</t>
+  </si>
+  <si>
+    <t>蓝光光碟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E4%BD%9C%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>动作电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%B9%BB%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>奇幻电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%8A%87%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>喜剧电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>恐怖电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%83%85%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>爱情电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%8C%AA%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>警匪电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B9%BB%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>科幻电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>战争电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%81%BD%E9%9B%A3%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>灾难电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>动画电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E8%88%9E%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>歌舞电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E8%8A%82</t>
+  </si>
+  <si>
+    <t>电影节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E5%A5%96</t>
+  </si>
+  <si>
+    <t>电影奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>电影公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E6%BC%94%E5%93%A1</t>
+  </si>
+  <si>
+    <t>电影演员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E7%9B%A3%E8%A3%BD</t>
+  </si>
+  <si>
+    <t>电影监制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>中国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>香港电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>台湾电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%AA%9E%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>华语电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E8%AA%9E%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>台语电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%88%90%E4%BA%BA%E5%BD%B1%E7%89%87</t>
+  </si>
+  <si>
+    <t>日本成人影片</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>电影技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E9%8F%A1%E9%A0%AD</t>
+  </si>
+  <si>
+    <t>长镜头</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%AA%E5%A5%87</t>
+  </si>
+  <si>
+    <t>蒙太奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E7%89%B9%E6%8A%80</t>
+  </si>
+  <si>
+    <t>电影特技</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/3D%E9%9B%BB%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>3D电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E5%88%86%E7%B4%9A%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>电影分级制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NG%E7%89%87%E6%AE%B5</t>
+  </si>
+  <si>
+    <t>NG片段</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%9C%BC%E9%9B%BB%E5%BD%B1%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>开眼电影网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/IMDB</t>
+  </si>
+  <si>
+    <t>IMDB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Harvard_University_Press</t>
+  </si>
+  <si>
+    <t>Harvard University Press</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>Template talk-艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>艺术家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%9C%AF%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美术史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E6%9D%91</t>
+  </si>
+  <si>
+    <t>艺术村</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E5%9E%8B_(%E8%97%9D%E8%A1%93)</t>
+  </si>
+  <si>
+    <t>类型 (艺术)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89%E8%89%BA%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E7%95%AB</t>
+  </si>
+  <si>
+    <t>油画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%BD%A9%E7%94%BB</t>
+  </si>
+  <si>
+    <t>水彩画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%A2%A8%E7%95%AB</t>
+  </si>
+  <si>
+    <t>水墨画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E6%B3%95</t>
+  </si>
+  <si>
+    <t>书法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E5%88%BB</t>
+  </si>
+  <si>
+    <t>篆刻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%89%E5%BD%A9_(%E9%A2%9C%E6%96%99)</t>
+  </si>
+  <si>
+    <t>粉彩 (颜料)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E6%8F%8F</t>
+  </si>
+  <si>
+    <t>素描</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E7%95%AB</t>
+  </si>
+  <si>
+    <t>版画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E7%95%AB</t>
+  </si>
+  <si>
+    <t>插画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E5%AF%AB</t>
+  </si>
+  <si>
+    <t>速写</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%94%BB</t>
+  </si>
+  <si>
+    <t>漫画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E9%9B%95</t>
+  </si>
+  <si>
+    <t>木雕</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E9%9B%95</t>
+  </si>
+  <si>
+    <t>浮雕</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E9%9B%95</t>
+  </si>
+  <si>
+    <t>冰雕</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%9B%95</t>
+  </si>
+  <si>
+    <t>沙雕</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B8%E9%9B%95</t>
+  </si>
+  <si>
+    <t>纸雕</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E8%97%9D</t>
+  </si>
+  <si>
+    <t>陶艺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A5%E5%A1%91</t>
+  </si>
+  <si>
+    <t>泥塑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>公共艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E5%86%85%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>室内设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%AD%E6%9E%97%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>园林设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E8%A8%AD%E8%A8%88</t>
+  </si>
+  <si>
+    <t>景观设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>城市设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
+  </si>
+  <si>
+    <t>城市规划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%89%BA%E7%BE%8E%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>工艺美术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E5%99%A8</t>
+  </si>
+  <si>
+    <t>陶器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%B7%E5%99%A8</t>
+  </si>
+  <si>
+    <t>瓷器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E5%99%A8</t>
+  </si>
+  <si>
+    <t>玉器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%86%E5%99%A8</t>
+  </si>
+  <si>
+    <t>漆器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E7%B9%A1</t>
+  </si>
+  <si>
+    <t>刺绣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>插花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AA%E7%BA%B8</t>
+  </si>
+  <si>
+    <t>剪纸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E7%BA%B8</t>
+  </si>
+  <si>
+    <t>折纸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%BB%93</t>
+  </si>
+  <si>
+    <t>中国结</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%89%A9%E6%91%84%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>人物摄影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E5%AF%A6%E6%94%9D%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>纪实摄影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E6%94%9D%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>天文摄影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%BF%B5%E6%94%9D%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>观念摄影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%B7%9D%E6%94%9D%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>微距摄影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%BD%A2%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>图形设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%B0%9A%E8%A8%AD%E8%A8%88</t>
+  </si>
+  <si>
+    <t>时尚设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>产品设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E4%BA%92%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>交互设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>游戏设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>广告设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94%E8%89%BA%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%99%A8%E6%A8%82</t>
+  </si>
+  <si>
+    <t>器乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E6%A8%82</t>
+  </si>
+  <si>
+    <t>声乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%95%BE%E8%88%9E</t>
+  </si>
+  <si>
+    <t>芭蕾舞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%88%9E%E8%B9%88</t>
+  </si>
+  <si>
+    <t>民族舞蹈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%88%9E</t>
+  </si>
+  <si>
+    <t>现代舞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E4%BB%A3%E8%88%9E</t>
+  </si>
+  <si>
+    <t>当代舞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%8A%87</t>
+  </si>
+  <si>
+    <t>喜剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%82%B2%E5%8A%87</t>
+  </si>
+  <si>
+    <t>悲剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%8A%87</t>
+  </si>
+  <si>
+    <t>歌剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%95%BE%E8%88%9E%E5%8A%87</t>
+  </si>
+  <si>
+    <t>芭蕾舞剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E5%8A%87</t>
+  </si>
+  <si>
+    <t>音乐剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B2%E6%9B%B2</t>
+  </si>
+  <si>
+    <t>戏曲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%89%A7%E5%B0%8F%E5%93%81</t>
+  </si>
+  <si>
+    <t>喜剧小品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%8A%87</t>
+  </si>
+  <si>
+    <t>电视剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%94%BB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E5%8A%87</t>
+  </si>
+  <si>
+    <t>广播剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%82%E6%8A%80</t>
+  </si>
+  <si>
+    <t>杂技</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>魔术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%A3%B0</t>
+  </si>
+  <si>
+    <t>相声</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%84%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>评书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E6%8A%80</t>
+  </si>
+  <si>
+    <t>口技</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%97</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
+  </si>
+  <si>
+    <t>散文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>小说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%A7%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>剧本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%B9%E9%A5%AA</t>
+  </si>
+  <si>
+    <t>烹饪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E8%89%BA</t>
+  </si>
+  <si>
+    <t>茶艺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E9%85%92</t>
+  </si>
+  <si>
+    <t>调酒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B0%B4</t>
+  </si>
+  <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%BD%AE%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>装置艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>行为艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BA%E6%9C%AF%E6%B5%81%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>艺术流派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E8%89%BA%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>现代艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%96%93%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>民间艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自然主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>古典主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>新古典主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E8%A1%B7%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>折衷主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>形式主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>功能主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
+  </si>
+  <si>
+    <t>历史相对论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%A7%98%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>神秘主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%AB%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>写实主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>地方主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>浪漫主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%AD%A5%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>同步主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%A1%91%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>普桑主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E4%BF%9D%E7%BE%85%C2%B7%E9%AD%AF%E6%9C%AC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>彼得·保罗·鲁本斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E8%88%87%E5%B7%A5%E8%97%9D%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>艺术与工艺运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%E7%8D%8E</t>
+  </si>
+  <si>
+    <t>托尼奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E6%96%87%E5%AD%A6%E5%A5%96</t>
+  </si>
+  <si>
+    <t>诺贝尔文学奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%90%8A%E7%BE%8E%E7%8D%8E</t>
+  </si>
+  <si>
+    <t>葛莱美奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E9%87%91%E5%83%8F%E7%8D%8E</t>
+  </si>
+  <si>
+    <t>奥斯卡金像奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%9A%E8%A6%BD%E6%9C%83</t>
+  </si>
+  <si>
+    <t>世界博览会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BF%9D%E7%BD%97%E5%8F%8C%E5%B9%B4%E5%B1%95</t>
+  </si>
+  <si>
+    <t>圣保罗双年展</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF%E5%8F%8C%E5%B9%B4%E5%B1%95</t>
+  </si>
+  <si>
+    <t>威尼斯双年展</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%8F%8C%E5%B9%B4%E5%B1%95</t>
+  </si>
+  <si>
+    <t>上海双年展</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E7%94%B5%E5%BD%B1%E8%8A%82</t>
+  </si>
+  <si>
+    <t>柏林电影节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E5%9F%8E%E9%9B%BB%E5%BD%B1%E7%AF%80</t>
+  </si>
+  <si>
+    <t>坎城电影节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%9C%8B%E9%9A%9B%E9%9B%BB%E5%BD%B1%E7%AF%80</t>
+  </si>
+  <si>
+    <t>东京国际电影节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E5%BD%B1%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国电影学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BD%9C%E5%AE%B6%E5%8D%8F%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>中国作家协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E7%88%B1%E4%B9%90%E4%B9%90%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>柏林爱乐乐团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E4%BA%A4%E5%93%8D%E4%B9%90%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>伦敦交响乐团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%84%9B%E6%A8%82%E6%A8%82%E5%9C%98</t>
+  </si>
+  <si>
+    <t>纽约爱乐乐团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A0%BC%E8%98%AD%E6%94%9D%E5%BD%B1%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>马格兰摄影通讯社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E5%8A%87%E5%9C%98</t>
+  </si>
+  <si>
+    <t>太阳剧团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%88%9E%E8%B9%88%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>国际舞蹈委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82%E8%8A%AD%E8%95%BE%E8%88%9E%E5%9C%98</t>
+  </si>
+  <si>
+    <t>纽约市芭蕾舞团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%BB%BA%E7%AD%91%E5%B8%88%E5%8D%8F%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>国际建筑师协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8F%83%E8%A7%80%E4%BA%BA%E6%95%B8%E6%9C%80%E5%A4%9A%E7%9A%84%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>世界参观人数最多的艺术博物馆列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%B5%AE%E5%AE%AB</t>
+  </si>
+  <si>
+    <t>卢浮宫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>大都会艺术博物馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>大英博物馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%BE%8E%E6%9C%AF%E9%A6%86_(%E4%BC%A6%E6%95%A6)</t>
+  </si>
+  <si>
+    <t>国家美术馆 (伦敦)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%89%B9%E7%8F%BE%E4%BB%A3%E8%97%9D%E8%A1%93%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>泰特现代艺术馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%97%9D%E5%BB%8A</t>
+  </si>
+  <si>
+    <t>国家艺廊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%95%85%E5%AE%AE%E5%8D%9A%E7%89%A9%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国立故宫博物院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E7%95%A2%E5%BA%A6%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>庞毕度中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E5%8F%B0%E5%AA%92%E9%AB%94%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>仙台媒体中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%BE%8E%E6%9C%AF%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>中国美术史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%BE%8E%E6%9C%AF%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>西方美术史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>建筑史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>文学史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>音乐历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>设计史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>艺术教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>美学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BA%E6%9C%AF%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>艺术心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>艺术百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E5%89%B5%E4%BD%9C%E7%A2%A9%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>艺术创作硕士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E9%80%A0%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>创造力</t>
+  </si>
+  <si>
+    <t>https://en.wikiquote.org/wiki/Art</t>
+  </si>
+  <si>
+    <t>wikiquote-Art</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%8E%E5%BE%B7%E6%B5%B7%E8%8A%B1%E5%9B%AD%E5%9C%BA%E6%99%AF</t>
-  </si>
-  <si>
-    <t>郎德海花园场景</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>表演藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>視覺藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%AC%E8%A7%89%E8%89%BA%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>听觉艺术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E5%8D%B7</t>
-  </si>
-  <si>
-    <t>膠卷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%95%E5%83%8F%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>录像带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%AA%92%E9%AB%94</t>
-  </si>
-  <si>
-    <t>數位媒體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%A7</t>
-  </si>
-  <si>
-    <t>帧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E7%8F%BE%E8%B1%A1</t>
-  </si>
-  <si>
-    <t>飛現象</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E6%9A%AB%E7%95%99</t>
-  </si>
-  <si>
-    <t>視覺暫留</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hugo_M%C3%BCnsterberg</t>
-  </si>
-  <si>
-    <t>en-Hugo Münsterberg</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E8%A3%BD%E4%BD%9C</t>
-  </si>
-  <si>
-    <t>電影製作</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>藝術電影</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/film_industry</t>
-  </si>
-  <si>
-    <t>en-film industry</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E6%94%9D%E5%BD%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>電影攝影機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%84%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>摄影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB</t>
-  </si>
-  <si>
-    <t>動畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E6%88%90%E5%83%8F</t>
-  </si>
-  <si>
-    <t>電腦成像</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%8A%A8%E7%94%BB</t>
-  </si>
-  <si>
-    <t>计算机动画</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89%E6%95%88%E6%9E%9C</t>
-  </si>
-  <si>
-    <t>视觉效果</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E6%99%AE%E6%9E%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>路易斯·普林斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E5%BE%B7%E6%B5%B7%E8%8A%B1%E5%9B%AD%E5%9C%BA%E6%99%AF</t>
-  </si>
-  <si>
-    <t>朗德海花园场景</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ricciotto_Canudo</t>
-  </si>
-  <si>
-    <t>en-Ricciotto Canudo</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
-  </si>
-  <si>
-    <t>建築</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E5%A1%91</t>
-  </si>
-  <si>
-    <t>雕塑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B9%AA%E7%95%AB</t>
-  </si>
-  <si>
-    <t>繪畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82</t>
-  </si>
-  <si>
-    <t>音樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%A9</t>
-  </si>
-  <si>
-    <t>詩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%9E%E8%B9%88</t>
-  </si>
-  <si>
-    <t>舞蹈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B2%E5%8A%87</t>
-  </si>
-  <si>
-    <t>戲劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>八大藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>攝影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E6%94%BE%E6%98%A0%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>电影放映机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E8%81%B2%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>有聲電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E5%BD%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>攝影機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E6%B2%83%E5%BE%B7%C2%B7%E8%BF%88%E5%B8%83%E9%87%8C%E5%A5%87</t>
-  </si>
-  <si>
-    <t>埃德沃德·迈布里奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E7%B1%B3%E5%9F%83%E5%B0%94%E5%85%84%E5%BC%9F</t>
-  </si>
-  <si>
-    <t>卢米埃尔兄弟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>游戏报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E8%A9%95%E8%AB%96</t>
-  </si>
-  <si>
-    <t>電影評論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>大公報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
-  </si>
-  <si>
-    <t>廣告</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>电影史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BD%A6%E8%BF%9B%E7%AB%99</t>
-  </si>
-  <si>
-    <t>火车进站</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E7%B1%B3%E5%9F%83%E5%85%84%E5%BC%9F</t>
-  </si>
-  <si>
-    <t>盧米埃兄弟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%99%BD</t>
-  </si>
-  <si>
-    <t>黑白</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E5%BC%80%E5%B7%A5%E5%8E%82</t>
-  </si>
-  <si>
-    <t>离开工厂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E7%94%9F%E6%B4%BB</t>
-  </si>
-  <si>
-    <t>日常生活</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%A2%85%E9%87%8C%E7%88%B1</t>
-  </si>
-  <si>
-    <t>乔治·梅里爱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%93%E5%88%A5%E6%9E%97</t>
-  </si>
-  <si>
-    <t>卓別林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E7%93%A6%E5%80%AB%E8%92%82%E8%AB%BE</t>
-  </si>
-  <si>
-    <t>魯道夫·瓦倫蒂諾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%C2%B7%E4%BC%8D%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>艾德·伍德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%81%B2%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>無聲電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E7%90%B4</t>
-  </si>
-  <si>
-    <t>鋼琴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%BB%8C</t>
-  </si>
-  <si>
-    <t>音軌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%AD%8C%E6%89%8B</t>
-  </si>
-  <si>
-    <t>爵士歌手</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E5%8D%8E%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>浮华世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%8C%B9%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>史匹堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%BE%B7%E5%8B%92%E7%9A%84%E5%90%8D%E5%96%AE</t>
-  </si>
-  <si>
-    <t>辛德勒的名單</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%99%E9%87%8C%E7%9A%84%E9%BB%8E%E6%98%8E%E9%9D%99%E6%82%84%E6%82%84_(1972%E5%B9%B4%E7%94%B5%E5%BD%B1)</t>
-  </si>
-  <si>
-    <t>这里的黎明静悄悄 (1972年电影)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%97%9D%E8%A1%93%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>大藝術家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E9%81%94%E7%9A%84%E6%8A%89%E6%93%87</t>
-  </si>
-  <si>
-    <t>依達的抉擇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%B7%E8%B4%9D</t>
-  </si>
-  <si>
-    <t>拷贝</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/16_mm_film</t>
-  </si>
-  <si>
-    <t>en-16 mm film</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bolex</t>
-  </si>
-  <si>
-    <t>en-Bolex</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/film_school</t>
-  </si>
-  <si>
-    <t>en-film school</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E9%98%BF%E6%81%A9%E6%B5%B7%E5%A7%86</t>
-  </si>
-  <si>
-    <t>鲁道夫·阿恩海姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%8B%89%C2%B7%E5%B7%B4%E6%8B%89%E5%85%B9</t>
-  </si>
-  <si>
-    <t>贝拉·巴拉兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%A0%BC%E5%BC%97%E9%87%8C%E5%BE%B7%C2%B7%E7%A7%91%E6%8B%89%E8%80%83%E7%88%BE</t>
-  </si>
-  <si>
-    <t>齊格弗里德·科拉考爾</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Formalist_film_theory</t>
-  </si>
-  <si>
-    <t>en-Formalist film theory</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A1%93</t>
-  </si>
-  <si>
-    <t>美術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E5%B7%B4%E8%B5%9E</t>
-  </si>
-  <si>
-    <t>安德烈·巴赞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%C2%B7%E6%8B%89%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>雅各·拉岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>精神分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%BF%AA%E5%8D%97%C2%B7%E5%BE%B7%C2%B7%E7%B4%A2%E7%B7%92%E7%88%BE</t>
-  </si>
-  <si>
-    <t>弗迪南·德·索緒爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>符號學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/psychoanalytical_film_theory</t>
-  </si>
-  <si>
-    <t>en-psychoanalytical film theory</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/structuralist_film_theory</t>
-  </si>
-  <si>
-    <t>en-structuralist film theory</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/feminist_film_theory</t>
-  </si>
-  <si>
-    <t>en-feminist film theory</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E7%BB%B4%E7%89%B9%E6%A0%B9%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>路德维希·维特根斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>分析哲學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Form_of_life_(philosophy)</t>
-  </si>
-  <si>
-    <t>en-Form of life (philosophy)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>語言</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/James_Monaco</t>
-  </si>
-  <si>
-    <t>en-James Monaco</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E7%8E%9B%C2%B7%E4%BC%AF%E6%A0%BC%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>英格玛·伯格曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E5%A1%94%E5%B0%94%E7%A7%91%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>安德烈·塔尔科夫斯基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E5%B0%8E%E6%BC%94</t>
-  </si>
-  <si>
-    <t>電影導演</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/180-degree_rule</t>
-  </si>
-  <si>
-    <t>en-180-degree rule</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E5%85%B8%E5%A5%BD%E8%8E%B1%E5%9D%9E%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>经典好莱坞电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E7%B4%99</t>
-  </si>
-  <si>
-    <t>報紙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%AA%8C</t>
-  </si>
-  <si>
-    <t>雜誌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%87%E7%A8%AE</t>
-  </si>
-  <si>
-    <t>片種</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E4%BD%9C%E7%89%87</t>
-  </si>
-  <si>
-    <t>動作片</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%89%87</t>
-  </si>
-  <si>
-    <t>恐怖片</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%8A%87%E7%89%87</t>
-  </si>
-  <si>
-    <t>喜劇片</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E6%83%85%E7%89%87</t>
-  </si>
-  <si>
-    <t>劇情片</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%A8%E6%88%BF</t>
-  </si>
-  <si>
-    <t>票房</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Film_promotion</t>
-  </si>
-  <si>
-    <t>en-Film promotion</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%B4%8B%E7%89%87</t>
-  </si>
-  <si>
-    <t>拉洋片</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%C2%B7%E5%B8%83%E6%8B%89%E5%93%88%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>斯坦·布拉哈格</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mothlight</t>
-  </si>
-  <si>
-    <t>en-Mothlight</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pre-production</t>
-  </si>
-  <si>
-    <t>en-Pre-production</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9C%9F%E8%A3%BD%E4%BD%9C</t>
-  </si>
-  <si>
-    <t>後期製作</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Film_distribution</t>
-  </si>
-  <si>
-    <t>en-Film distribution</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%81%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>閱聽人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>電影</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/film_distributor</t>
-  </si>
-  <si>
-    <t>en-film distributor</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/film_release</t>
-  </si>
-  <si>
-    <t>en-film release</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E9%99%A2</t>
-  </si>
-  <si>
-    <t>電影院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E9%81%B8%E8%A6%96%E8%A8%8A</t>
-  </si>
-  <si>
-    <t>隨選視訊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E8%81%AF%E8%B3%A3</t>
-  </si>
-  <si>
-    <t>廣播聯賣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E8%8A%82%E7%9B%AE</t>
-  </si>
-  <si>
-    <t>电视节目</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/VHS</t>
-  </si>
-  <si>
-    <t>VHS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E5%A4%9A%E5%8A%9F%E8%83%BD%E5%BD%B1%E9%9F%B3%E5%85%89%E7%A2%9F</t>
-  </si>
-  <si>
-    <t>數碼多功能影音光碟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%85%89%E5%85%89%E7%A2%9F</t>
-  </si>
-  <si>
-    <t>藍光光碟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
-  </si>
-  <si>
-    <t>互联网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E4%BD%9C%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>動作電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%B9%BB%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>奇幻電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%8A%87%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>喜劇電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>恐怖電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%83%85%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>爱情电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%8C%AA%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>警匪電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B9%BB%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>科幻電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>戰爭電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%BD%E9%9B%A3%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>災難電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>動畫電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E8%88%9E%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>歌舞電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E8%8A%82</t>
-  </si>
-  <si>
-    <t>电影节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E5%A5%96</t>
-  </si>
-  <si>
-    <t>电影奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>电影公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E6%BC%94%E5%93%A1</t>
-  </si>
-  <si>
-    <t>電影演員</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E7%9B%A3%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>電影監製</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
-  </si>
-  <si>
-    <t>好萊塢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>中國電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>香港電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>台灣電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%AA%9E%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>華語電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E8%AA%9E%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>台語電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%88%90%E4%BA%BA%E5%BD%B1%E7%89%87</t>
-  </si>
-  <si>
-    <t>日本成人影片</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>电影技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E9%8F%A1%E9%A0%AD</t>
-  </si>
-  <si>
-    <t>長鏡頭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%AA%E5%A5%87</t>
-  </si>
-  <si>
-    <t>蒙太奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1%E7%89%B9%E6%8A%80</t>
-  </si>
-  <si>
-    <t>电影特技</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/3D%E9%9B%BB%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>3D電影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E5%88%86%E7%B4%9A%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>電影分級制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NG%E7%89%87%E6%AE%B5</t>
-  </si>
-  <si>
-    <t>NG片段</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%9C%BC%E9%9B%BB%E5%BD%B1%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>開眼電影網</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/IMDB</t>
-  </si>
-  <si>
-    <t>IMDB</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Harvard_University_Press</t>
-  </si>
-  <si>
-    <t>Harvard University Press</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
-  </si>
-  <si>
-    <t>维基文库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>Template talk-藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>藝術家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%9C%AF%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美术史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E6%9D%91</t>
-  </si>
-  <si>
-    <t>藝術村</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E5%9E%8B_(%E8%97%9D%E8%A1%93)</t>
-  </si>
-  <si>
-    <t>類型 (藝術)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88</t>
-  </si>
-  <si>
-    <t>設計</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89%E8%89%BA%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>视觉艺术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E7%95%AB</t>
-  </si>
-  <si>
-    <t>油畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%BD%A9%E7%94%BB</t>
-  </si>
-  <si>
-    <t>水彩画</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%A2%A8%E7%95%AB</t>
-  </si>
-  <si>
-    <t>水墨畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E6%B3%95</t>
-  </si>
-  <si>
-    <t>書法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E5%88%BB</t>
-  </si>
-  <si>
-    <t>篆刻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%89%E5%BD%A9_(%E9%A2%9C%E6%96%99)</t>
-  </si>
-  <si>
-    <t>粉彩 (颜料)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E6%8F%8F</t>
-  </si>
-  <si>
-    <t>素描</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E7%95%AB</t>
-  </si>
-  <si>
-    <t>版畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E7%95%AB</t>
-  </si>
-  <si>
-    <t>插畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E5%AF%AB</t>
-  </si>
-  <si>
-    <t>速寫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%94%BB</t>
-  </si>
-  <si>
-    <t>漫画</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E9%9B%95</t>
-  </si>
-  <si>
-    <t>木雕</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E9%9B%95</t>
-  </si>
-  <si>
-    <t>浮雕</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E9%9B%95</t>
-  </si>
-  <si>
-    <t>冰雕</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%9B%95</t>
-  </si>
-  <si>
-    <t>沙雕</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B8%E9%9B%95</t>
-  </si>
-  <si>
-    <t>纸雕</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E8%97%9D</t>
-  </si>
-  <si>
-    <t>陶藝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A5%E5%A1%91</t>
-  </si>
-  <si>
-    <t>泥塑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>公共藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E5%86%85%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>室内设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%AD%E6%9E%97%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>园林设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E8%A8%AD%E8%A8%88</t>
-  </si>
-  <si>
-    <t>景觀設計</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>城市设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
-  </si>
-  <si>
-    <t>城市规划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%89%BA%E7%BE%8E%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>工艺美术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E5%99%A8</t>
-  </si>
-  <si>
-    <t>陶器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%B7%E5%99%A8</t>
-  </si>
-  <si>
-    <t>瓷器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E5%99%A8</t>
-  </si>
-  <si>
-    <t>玉器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%86%E5%99%A8</t>
-  </si>
-  <si>
-    <t>漆器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E7%B9%A1</t>
-  </si>
-  <si>
-    <t>刺繡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>插花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AA%E7%BA%B8</t>
-  </si>
-  <si>
-    <t>剪纸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E7%BA%B8</t>
-  </si>
-  <si>
-    <t>折纸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%BB%93</t>
-  </si>
-  <si>
-    <t>中国结</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%89%A9%E6%91%84%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>人物摄影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E5%AF%A6%E6%94%9D%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>紀實攝影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E6%94%9D%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>天文攝影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%BF%B5%E6%94%9D%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>觀念攝影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%B7%9D%E6%94%9D%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>微距攝影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%BD%A2%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>图形设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%B0%9A%E8%A8%AD%E8%A8%88</t>
-  </si>
-  <si>
-    <t>時尚設計</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>产品设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E4%BA%92%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>交互设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>游戏设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>广告设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94%E8%89%BA%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>表演艺术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%99%A8%E6%A8%82</t>
-  </si>
-  <si>
-    <t>器樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E6%A8%82</t>
-  </si>
-  <si>
-    <t>聲樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%95%BE%E8%88%9E</t>
-  </si>
-  <si>
-    <t>芭蕾舞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%88%9E%E8%B9%88</t>
-  </si>
-  <si>
-    <t>民族舞蹈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%88%9E</t>
-  </si>
-  <si>
-    <t>現代舞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E4%BB%A3%E8%88%9E</t>
-  </si>
-  <si>
-    <t>当代舞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%8A%87</t>
-  </si>
-  <si>
-    <t>喜劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%82%B2%E5%8A%87</t>
-  </si>
-  <si>
-    <t>悲劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%8A%87</t>
-  </si>
-  <si>
-    <t>歌劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%95%BE%E8%88%9E%E5%8A%87</t>
-  </si>
-  <si>
-    <t>芭蕾舞劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E5%8A%87</t>
-  </si>
-  <si>
-    <t>音樂劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B2%E6%9B%B2</t>
-  </si>
-  <si>
-    <t>戲曲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%89%A7%E5%B0%8F%E5%93%81</t>
-  </si>
-  <si>
-    <t>喜剧小品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%8A%87</t>
-  </si>
-  <si>
-    <t>電視劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%94%BB</t>
-  </si>
-  <si>
-    <t>动画</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E5%8A%87</t>
-  </si>
-  <si>
-    <t>廣播劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%82%E6%8A%80</t>
-  </si>
-  <si>
-    <t>杂技</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>魔术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%A3%B0</t>
-  </si>
-  <si>
-    <t>相声</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%84%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>评书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E6%8A%80</t>
-  </si>
-  <si>
-    <t>口技</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%97</t>
-  </si>
-  <si>
-    <t>诗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
-  </si>
-  <si>
-    <t>散文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AF%B4</t>
-  </si>
-  <si>
-    <t>小说</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%A7%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>剧本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%B9%E9%A5%AA</t>
-  </si>
-  <si>
-    <t>烹饪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E8%89%BA</t>
-  </si>
-  <si>
-    <t>茶艺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E9%85%92</t>
-  </si>
-  <si>
-    <t>調酒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B0%B4</t>
-  </si>
-  <si>
-    <t>香水</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%BD%AE%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>裝置藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>行為藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BA%E6%9C%AF%E6%B5%81%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>艺术流派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E8%89%BA%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>现代艺术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%96%93%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>民間藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自然主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>古典主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新古典主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E8%A1%B7%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>折衷主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>形式主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>功能主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
-  </si>
-  <si>
-    <t>歷史相對論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%A7%98%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>神秘主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%AB%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>寫實主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>地方主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>浪漫主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%AD%A5%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>同步主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%A1%91%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>普桑主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E4%BF%9D%E7%BE%85%C2%B7%E9%AD%AF%E6%9C%AC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>彼得·保羅·魯本斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E8%88%87%E5%B7%A5%E8%97%9D%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>藝術與工藝運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%E7%8D%8E</t>
-  </si>
-  <si>
-    <t>托尼獎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E6%96%87%E5%AD%A6%E5%A5%96</t>
-  </si>
-  <si>
-    <t>诺贝尔文学奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%90%8A%E7%BE%8E%E7%8D%8E</t>
-  </si>
-  <si>
-    <t>葛萊美獎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E9%87%91%E5%83%8F%E7%8D%8E</t>
-  </si>
-  <si>
-    <t>奧斯卡金像獎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%9A%E8%A6%BD%E6%9C%83</t>
-  </si>
-  <si>
-    <t>世界博覽會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BF%9D%E7%BD%97%E5%8F%8C%E5%B9%B4%E5%B1%95</t>
-  </si>
-  <si>
-    <t>圣保罗双年展</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF%E5%8F%8C%E5%B9%B4%E5%B1%95</t>
-  </si>
-  <si>
-    <t>威尼斯双年展</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%8F%8C%E5%B9%B4%E5%B1%95</t>
-  </si>
-  <si>
-    <t>上海双年展</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E7%94%B5%E5%BD%B1%E8%8A%82</t>
-  </si>
-  <si>
-    <t>柏林电影节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E5%9F%8E%E9%9B%BB%E5%BD%B1%E7%AF%80</t>
-  </si>
-  <si>
-    <t>坎城電影節</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%9C%8B%E9%9A%9B%E9%9B%BB%E5%BD%B1%E7%AF%80</t>
-  </si>
-  <si>
-    <t>東京國際電影節</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E5%BD%B1%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國電影學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BD%9C%E5%AE%B6%E5%8D%8F%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>中国作家协会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E7%88%B1%E4%B9%90%E4%B9%90%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>柏林爱乐乐团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E4%BA%A4%E5%93%8D%E4%B9%90%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>伦敦交响乐团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%84%9B%E6%A8%82%E6%A8%82%E5%9C%98</t>
-  </si>
-  <si>
-    <t>紐約愛樂樂團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A0%BC%E8%98%AD%E6%94%9D%E5%BD%B1%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>馬格蘭攝影通訊社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E5%8A%87%E5%9C%98</t>
-  </si>
-  <si>
-    <t>太陽劇團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%88%9E%E8%B9%88%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>国际舞蹈委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82%E8%8A%AD%E8%95%BE%E8%88%9E%E5%9C%98</t>
-  </si>
-  <si>
-    <t>紐約市芭蕾舞團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%BB%BA%E7%AD%91%E5%B8%88%E5%8D%8F%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>国际建筑师协会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8F%83%E8%A7%80%E4%BA%BA%E6%95%B8%E6%9C%80%E5%A4%9A%E7%9A%84%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>世界參觀人數最多的藝術博物館列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%B5%AE%E5%AE%AB</t>
-  </si>
-  <si>
-    <t>卢浮宫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>大都會藝術博物館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>大英博物館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%BE%8E%E6%9C%AF%E9%A6%86_(%E4%BC%A6%E6%95%A6)</t>
-  </si>
-  <si>
-    <t>国家美术馆 (伦敦)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%89%B9%E7%8F%BE%E4%BB%A3%E8%97%9D%E8%A1%93%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>泰特現代藝術館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%97%9D%E5%BB%8A</t>
-  </si>
-  <si>
-    <t>國家藝廊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%95%85%E5%AE%AE%E5%8D%9A%E7%89%A9%E9%99%A2</t>
-  </si>
-  <si>
-    <t>國立故宮博物院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E7%95%A2%E5%BA%A6%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>龐畢度中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E5%8F%B0%E5%AA%92%E9%AB%94%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>仙台媒體中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%BE%8E%E6%9C%AF%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>中国美术史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%BE%8E%E6%9C%AF%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>西方美术史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>建筑史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>文学史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>音樂歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>設計史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>藝術教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>美學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BA%E6%9C%AF%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>艺术心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>藝術百科全書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E5%89%B5%E4%BD%9C%E7%A2%A9%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>藝術創作碩士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E9%80%A0%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>創造力</t>
-  </si>
-  <si>
-    <t>https://en.wikiquote.org/wiki/Art</t>
-  </si>
-  <si>
-    <t>wikiquote-Art</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3193,7 +3172,7 @@
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G34" t="n">
         <v>10</v>
@@ -3219,10 +3198,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -3248,10 +3227,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -3277,10 +3256,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3306,10 +3285,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3335,10 +3314,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3364,10 +3343,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -3393,10 +3372,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3422,10 +3401,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>15</v>
@@ -3451,10 +3430,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3480,10 +3459,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3509,10 +3488,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3538,10 +3517,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3567,10 +3546,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3596,10 +3575,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -3625,10 +3604,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3654,10 +3633,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3683,10 +3662,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3712,10 +3691,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3741,10 +3720,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3770,10 +3749,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3799,10 +3778,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3828,10 +3807,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3857,10 +3836,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3886,10 +3865,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3915,10 +3894,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3944,10 +3923,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3973,10 +3952,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4002,10 +3981,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4031,10 +4010,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4060,10 +4039,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4089,10 +4068,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4118,10 +4097,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4147,10 +4126,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4176,10 +4155,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4205,10 +4184,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4234,10 +4213,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4263,10 +4242,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4292,10 +4271,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4321,10 +4300,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4350,10 +4329,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4379,10 +4358,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4408,10 +4387,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4437,10 +4416,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4466,10 +4445,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4495,10 +4474,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4524,10 +4503,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4553,10 +4532,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4582,10 +4561,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4611,10 +4590,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4640,10 +4619,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4669,10 +4648,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>7</v>
@@ -4698,10 +4677,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4727,10 +4706,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4756,10 +4735,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4785,10 +4764,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4814,10 +4793,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4843,10 +4822,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4872,10 +4851,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4901,10 +4880,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4930,10 +4909,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4959,10 +4938,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4988,10 +4967,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5017,10 +4996,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5046,10 +5025,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5075,10 +5054,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -5104,10 +5083,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5133,10 +5112,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5162,10 +5141,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5191,10 +5170,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5220,10 +5199,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5249,10 +5228,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5278,10 +5257,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5307,10 +5286,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5336,13 +5315,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
       </c>
-      <c r="F108" t="s">
-        <v>216</v>
-      </c>
       <c r="G108" t="n">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -5365,10 +5344,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5394,13 +5373,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
       </c>
-      <c r="F110" t="s">
-        <v>220</v>
-      </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -5423,13 +5402,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
       </c>
-      <c r="F111" t="s">
-        <v>222</v>
-      </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -5452,10 +5431,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5481,10 +5460,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5510,10 +5489,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5539,10 +5518,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5568,10 +5547,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5597,10 +5576,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5626,10 +5605,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5655,10 +5634,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5684,10 +5663,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5713,10 +5692,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5742,10 +5721,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5771,10 +5750,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5800,10 +5779,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5829,10 +5808,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5858,10 +5837,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5887,10 +5866,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5916,10 +5895,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5945,13 +5924,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
       </c>
-      <c r="F129" t="s">
-        <v>258</v>
-      </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5974,13 +5953,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
       </c>
-      <c r="F130" t="s">
-        <v>260</v>
-      </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6003,13 +5982,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
       </c>
-      <c r="F131" t="s">
-        <v>262</v>
-      </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6032,13 +6011,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
       </c>
-      <c r="F132" t="s">
-        <v>264</v>
-      </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -6061,10 +6040,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6090,10 +6069,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6119,10 +6098,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6148,10 +6127,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6177,10 +6156,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6206,10 +6185,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6235,10 +6214,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6264,10 +6243,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6293,13 +6272,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
       </c>
-      <c r="F141" t="s">
-        <v>282</v>
-      </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6322,13 +6301,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
       </c>
-      <c r="F142" t="s">
-        <v>284</v>
-      </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6351,10 +6330,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6380,10 +6359,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6409,10 +6388,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6438,10 +6417,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6467,10 +6446,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6496,10 +6475,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6525,10 +6504,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6554,10 +6533,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6583,10 +6562,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6612,10 +6591,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6641,13 +6620,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
       </c>
-      <c r="F153" t="s">
-        <v>306</v>
-      </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6670,13 +6649,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
       </c>
-      <c r="F154" t="s">
-        <v>308</v>
-      </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6699,13 +6678,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
       </c>
-      <c r="F155" t="s">
-        <v>310</v>
-      </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6728,10 +6707,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6757,10 +6736,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6786,13 +6765,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
       </c>
-      <c r="F158" t="s">
-        <v>316</v>
-      </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6815,13 +6794,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6844,13 +6823,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6873,13 +6852,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6902,10 +6881,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6931,10 +6910,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6960,10 +6939,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6989,10 +6968,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7018,10 +6997,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7047,10 +7026,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7076,10 +7055,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7105,10 +7084,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7134,10 +7113,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7163,10 +7142,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7192,10 +7171,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7221,10 +7200,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7250,10 +7229,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7279,10 +7258,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7308,10 +7287,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7337,10 +7316,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7366,10 +7345,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7395,10 +7374,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7424,13 +7403,13 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>52</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7453,13 +7432,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7482,10 +7461,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7511,10 +7490,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7540,10 +7519,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7569,10 +7548,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7598,10 +7577,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7627,10 +7606,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7656,10 +7635,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7685,10 +7664,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7714,10 +7693,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7743,10 +7722,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7772,10 +7751,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7801,10 +7780,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7830,10 +7809,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7859,10 +7838,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7888,10 +7867,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7917,10 +7896,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7946,10 +7925,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F198" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7975,10 +7954,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F199" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8004,10 +7983,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F200" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8033,13 +8012,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F201" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -8062,13 +8041,13 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F202" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G202" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8091,10 +8070,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F203" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8120,10 +8099,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F204" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8149,10 +8128,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F205" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8178,10 +8157,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F206" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8207,10 +8186,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F207" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8236,10 +8215,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F208" t="s">
-        <v>416</v>
+        <v>6</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8265,10 +8244,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8294,10 +8273,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F210" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8323,13 +8302,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F211" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8352,13 +8331,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F212" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8381,10 +8360,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F213" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8410,10 +8389,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F214" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8439,13 +8418,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F215" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8468,13 +8447,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F216" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8497,10 +8476,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8526,10 +8505,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F218" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8555,10 +8534,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8584,10 +8563,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F220" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8613,10 +8592,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F221" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8642,10 +8621,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F222" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8671,13 +8650,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F223" t="s">
-        <v>446</v>
+        <v>38</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8700,13 +8679,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F224" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8729,10 +8708,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F225" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8758,10 +8737,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F226" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8787,10 +8766,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F227" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8816,10 +8795,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F228" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8845,10 +8824,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F229" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8874,13 +8853,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F230" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -8903,13 +8882,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F231" t="s">
-        <v>462</v>
+        <v>60</v>
       </c>
       <c r="G231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8932,13 +8911,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F232" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -8961,10 +8940,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F233" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8990,10 +8969,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9019,10 +8998,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9048,10 +9027,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F236" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9077,10 +9056,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F237" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9106,10 +9085,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F238" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9135,10 +9114,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F239" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9164,10 +9143,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F240" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9193,10 +9172,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F241" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9222,10 +9201,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F242" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9251,10 +9230,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F243" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9280,10 +9259,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F244" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9309,13 +9288,13 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F245" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9338,13 +9317,13 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F246" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9367,10 +9346,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F247" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9396,10 +9375,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F248" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9425,10 +9404,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F249" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9454,10 +9433,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F250" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9483,10 +9462,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F251" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9512,10 +9491,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F252" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9541,10 +9520,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F253" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9570,10 +9549,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F254" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9599,10 +9578,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F255" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9628,10 +9607,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F256" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9657,10 +9636,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F257" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9686,10 +9665,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F258" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9715,10 +9694,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F259" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9744,10 +9723,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F260" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9773,10 +9752,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F261" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9802,10 +9781,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F262" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9831,10 +9810,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F263" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9860,10 +9839,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F264" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9889,10 +9868,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F265" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9918,10 +9897,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F266" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9947,10 +9926,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F267" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9976,10 +9955,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F268" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10005,10 +9984,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F269" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10034,10 +10013,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F270" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10063,10 +10042,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F271" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10092,10 +10071,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F272" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10121,10 +10100,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F273" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10150,10 +10129,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F274" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10179,10 +10158,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F275" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10208,10 +10187,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F276" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10237,10 +10216,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F277" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10266,10 +10245,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F278" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10295,10 +10274,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F279" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10324,10 +10303,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F280" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10353,13 +10332,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F281" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10382,13 +10361,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F282" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -10411,10 +10390,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F283" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10440,10 +10419,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F284" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10469,10 +10448,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F285" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10498,10 +10477,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F286" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10527,10 +10506,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F287" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10556,10 +10535,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F288" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10585,10 +10564,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F289" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10614,10 +10593,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F290" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10643,10 +10622,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F291" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10672,10 +10651,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F292" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10701,10 +10680,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F293" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10730,10 +10709,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F294" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10759,10 +10738,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F295" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10788,10 +10767,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>591</v>
+        <v>88</v>
       </c>
       <c r="F296" t="s">
-        <v>592</v>
+        <v>89</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10817,10 +10796,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>89</v>
+        <v>583</v>
       </c>
       <c r="F297" t="s">
-        <v>90</v>
+        <v>584</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10846,10 +10825,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10875,13 +10854,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -10904,13 +10883,13 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -10933,10 +10912,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10962,10 +10941,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10991,10 +10970,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11020,10 +10999,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F304" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11049,13 +11028,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F305" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11078,13 +11057,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F306" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11107,10 +11086,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F307" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11136,10 +11115,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F308" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11165,18 +11144,47 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F309" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
       </c>
       <c r="I309" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>309</v>
+      </c>
+      <c r="E310" t="s">
+        <v>607</v>
+      </c>
+      <c r="F310" t="s">
+        <v>609</v>
+      </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
+      <c r="H310" t="s">
+        <v>4</v>
+      </c>
+      <c r="I310" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/电影_intext.xlsx
+++ b/xlsx/电影_intext.xlsx
@@ -29,7 +29,7 @@
     <t>郎德海花园场景</t>
   </si>
   <si>
-    <t>政策_政策_美國_电影</t>
+    <t>体育运动_体育运动_大众媒体_电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94%E8%97%9D%E8%A1%93</t>
